--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1999.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1999.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"foreign" + 0.003*"exchange" + 0.002*"import" + 0.002*"payment" + 0.002*"control" + 0.001*"abroad" + 0.001*"currency" + 0.001*"account" + 0.001*"resident" + 0.001*"requirement"</t>
-  </si>
-  <si>
-    <t>0.007*"exchange" + 0.004*"foreign" + 0.004*"currency" + 0.003*"import" + 0.003*"export" + 0.003*"bank" + 0.002*"may" + 0.002*"abroad" + 0.002*"resident" + 0.002*"requirement"</t>
-  </si>
-  <si>
-    <t>0.024*"exchange" + 0.020*"foreign" + 0.017*"account" + 0.014*"currency" + 0.014*"control" + 0.014*"import" + 0.012*"resident" + 0.012*"export" + 0.012*"nonresident" + 0.012*"payment"</t>
-  </si>
-  <si>
-    <t>0.030*"foreign" + 0.019*"exchange" + 0.018*"import" + 0.015*"currency" + 0.014*"control" + 0.013*"account" + 0.012*"payment" + 0.012*"yes" + 0.012*"may" + 0.011*"resident"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"exchange" + 0.002*"control" + 0.002*"bank" + 0.002*"currency" + 0.002*"payment" + 0.002*"import" + 0.002*"may" + 0.002*"account" + 0.002*"yes"</t>
+    <t>0.078*"import" + 0.051*"yes" + 0.050*"fund" + 0.034*"international" + 0.030*"monetary" + 0.027*"requirement" + 0.020*"exchange" + 0.019*"foreign" + 0.016*"license" + 0.014*"redistribution"</t>
+  </si>
+  <si>
+    <t>0.072*"exchange" + 0.044*"rate" + 0.028*"arrangement" + 0.025*"payment" + 0.024*"trade" + 0.023*"control" + 0.019*"currency" + 0.018*"market" + 0.014*"gold" + 0.011*"forward"</t>
+  </si>
+  <si>
+    <t>0.068*"account" + 0.060*"foreign" + 0.053*"export" + 0.050*"currency" + 0.029*"may" + 0.022*"exchange" + 0.021*"requirement" + 0.021*"proceeds" + 0.018*"domestic" + 0.016*"bank"</t>
+  </si>
+  <si>
+    <t>0.048*"control" + 0.036*"resident" + 0.035*"nonresident" + 0.032*"transaction" + 0.032*"investment" + 0.031*"abroad" + 0.028*"security" + 0.028*"capital" + 0.027*"purchase" + 0.024*"credit"</t>
+  </si>
+  <si>
+    <t>0.033*"require" + 0.018*"approval" + 0.017*"foreign" + 0.014*"must" + 0.013*"prior" + 0.012*"subject" + 0.011*"may" + 0.011*"bank" + 0.011*"good" + 0.010*"authorization"</t>
   </si>
 </sst>
 </file>
